--- a/uploads/result_file.xlsx
+++ b/uploads/result_file.xlsx
@@ -1432,10 +1432,10 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1534,7 +1534,7 @@
         <v>26</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1687,10 +1687,10 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -1891,10 +1891,10 @@
         <v>68</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -1976,13 +1976,13 @@
         <v>78</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2197,7 +2197,7 @@
         <v>104</v>
       </c>
       <c r="C50">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50">
         <v>5</v>
@@ -2231,10 +2231,10 @@
         <v>108</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
@@ -2333,13 +2333,13 @@
         <v>120</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2367,7 +2367,7 @@
         <v>124</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -2401,10 +2401,10 @@
         <v>128</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -2418,13 +2418,13 @@
         <v>130</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2452,10 +2452,10 @@
         <v>134</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
@@ -2792,10 +2792,10 @@
         <v>174</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="s">
         <v>12</v>
@@ -2928,10 +2928,10 @@
         <v>190</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
@@ -3115,7 +3115,7 @@
         <v>212</v>
       </c>
       <c r="C104">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -3234,7 +3234,7 @@
         <v>226</v>
       </c>
       <c r="C111">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D111">
         <v>4</v>
@@ -3285,13 +3285,13 @@
         <v>232</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3336,13 +3336,13 @@
         <v>238</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3370,7 +3370,7 @@
         <v>242</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D119">
         <v>3</v>
@@ -3506,13 +3506,13 @@
         <v>258</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E127" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3676,10 +3676,10 @@
         <v>278</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="s">
         <v>12</v>
@@ -3693,13 +3693,13 @@
         <v>280</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E138" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:5">

--- a/uploads/result_file.xlsx
+++ b/uploads/result_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>學號</t>
   </si>
@@ -31,31 +31,16 @@
     <t>備註</t>
   </si>
   <si>
-    <t>S09350107</t>
-  </si>
-  <si>
-    <t>請假</t>
-  </si>
-  <si>
-    <t>2024-04-26</t>
+    <t>S10350320</t>
+  </si>
+  <si>
+    <t>缺考</t>
+  </si>
+  <si>
+    <t>2025-01-06</t>
   </si>
   <si>
     <t>自辦</t>
-  </si>
-  <si>
-    <t>S09350147</t>
-  </si>
-  <si>
-    <t>S09350212</t>
-  </si>
-  <si>
-    <t>S10410332</t>
-  </si>
-  <si>
-    <t>缺考</t>
-  </si>
-  <si>
-    <t>S11350218</t>
   </si>
 </sst>
 </file>
@@ -387,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -424,62 +409,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uploads/result_file.xlsx
+++ b/uploads/result_file.xlsx
@@ -14,33 +14,648 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="214">
   <si>
     <t>學號</t>
   </si>
   <si>
-    <t>缺考/請假</t>
-  </si>
-  <si>
-    <t>考試日期</t>
-  </si>
-  <si>
-    <t>考試種類</t>
-  </si>
-  <si>
-    <t>備註</t>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>累計題數</t>
+  </si>
+  <si>
+    <t>最高題數</t>
+  </si>
+  <si>
+    <t>是否通過</t>
+  </si>
+  <si>
+    <t>S08110137</t>
+  </si>
+  <si>
+    <t>余冠廷</t>
+  </si>
+  <si>
+    <t>不通過</t>
+  </si>
+  <si>
+    <t>S09130041</t>
+  </si>
+  <si>
+    <t>張言翎</t>
+  </si>
+  <si>
+    <t>S12350110</t>
+  </si>
+  <si>
+    <t>王慕恩</t>
+  </si>
+  <si>
+    <t>S12350113</t>
+  </si>
+  <si>
+    <t>翁子媛</t>
+  </si>
+  <si>
+    <t>S12350117</t>
+  </si>
+  <si>
+    <t>黃柏璋</t>
+  </si>
+  <si>
+    <t>S12350118</t>
+  </si>
+  <si>
+    <t>鍾庭立</t>
+  </si>
+  <si>
+    <t>S12350147</t>
+  </si>
+  <si>
+    <t>張妘溱</t>
+  </si>
+  <si>
+    <t>S12350202</t>
+  </si>
+  <si>
+    <t>王鈺嘉</t>
+  </si>
+  <si>
+    <t>S12350213</t>
+  </si>
+  <si>
+    <t>曾柏勛</t>
+  </si>
+  <si>
+    <t>S12350227</t>
+  </si>
+  <si>
+    <t>闕嘉薰</t>
+  </si>
+  <si>
+    <t>通過</t>
+  </si>
+  <si>
+    <t>S12350229</t>
+  </si>
+  <si>
+    <t>蔡瑋峵</t>
+  </si>
+  <si>
+    <t>S12350238</t>
+  </si>
+  <si>
+    <t>賴宣睿</t>
+  </si>
+  <si>
+    <t>S11350104</t>
+  </si>
+  <si>
+    <t>楊翔宇</t>
+  </si>
+  <si>
+    <t>S11350113</t>
+  </si>
+  <si>
+    <t>鐘子豪</t>
+  </si>
+  <si>
+    <t>S11350118</t>
+  </si>
+  <si>
+    <t>尤辰愷</t>
+  </si>
+  <si>
+    <t>S11350119</t>
+  </si>
+  <si>
+    <t>劉翔懷</t>
+  </si>
+  <si>
+    <t>S11350126</t>
+  </si>
+  <si>
+    <t>賴正叡</t>
+  </si>
+  <si>
+    <t>S11350127</t>
+  </si>
+  <si>
+    <t>田宇新</t>
+  </si>
+  <si>
+    <t>S11350128</t>
+  </si>
+  <si>
+    <t>葉宇誠</t>
+  </si>
+  <si>
+    <t>S11350137</t>
+  </si>
+  <si>
+    <t>陳羿學</t>
+  </si>
+  <si>
+    <t>S11350139</t>
+  </si>
+  <si>
+    <t>伍韶文</t>
+  </si>
+  <si>
+    <t>S11350148</t>
+  </si>
+  <si>
+    <t>王柏晨</t>
+  </si>
+  <si>
+    <t>S11350203</t>
+  </si>
+  <si>
+    <t>黃俞鈞</t>
+  </si>
+  <si>
+    <t>S11350235</t>
+  </si>
+  <si>
+    <t>游景丞</t>
+  </si>
+  <si>
+    <t>S11350239</t>
+  </si>
+  <si>
+    <t>謝昀翰</t>
+  </si>
+  <si>
+    <t>S11350241</t>
+  </si>
+  <si>
+    <t>劉百程</t>
+  </si>
+  <si>
+    <t>S11350301</t>
+  </si>
+  <si>
+    <t>吳亞倫</t>
+  </si>
+  <si>
+    <t>S11350307</t>
+  </si>
+  <si>
+    <t>陳典譽</t>
+  </si>
+  <si>
+    <t>S11350313</t>
+  </si>
+  <si>
+    <t>謝承燁</t>
+  </si>
+  <si>
+    <t>S11350327</t>
+  </si>
+  <si>
+    <t>桐硯祈</t>
+  </si>
+  <si>
+    <t>S11350351</t>
+  </si>
+  <si>
+    <t>汪昱翔</t>
+  </si>
+  <si>
+    <t>S09350105</t>
+  </si>
+  <si>
+    <t>王東亮</t>
+  </si>
+  <si>
+    <t>S09350107</t>
+  </si>
+  <si>
+    <t>曾馨儀</t>
+  </si>
+  <si>
+    <t>S09350137</t>
+  </si>
+  <si>
+    <t>陳首忠</t>
+  </si>
+  <si>
+    <t>S09350138</t>
+  </si>
+  <si>
+    <t>魏志翰</t>
+  </si>
+  <si>
+    <t>S09350152</t>
+  </si>
+  <si>
+    <t>錢昱期</t>
+  </si>
+  <si>
+    <t>S10350102</t>
+  </si>
+  <si>
+    <t>林妍妤</t>
+  </si>
+  <si>
+    <t>S10350110</t>
+  </si>
+  <si>
+    <t>李家蓁</t>
+  </si>
+  <si>
+    <t>S10350111</t>
+  </si>
+  <si>
+    <t>林彥熏</t>
+  </si>
+  <si>
+    <t>S10350112</t>
+  </si>
+  <si>
+    <t>文　珩</t>
+  </si>
+  <si>
+    <t>S10350122</t>
+  </si>
+  <si>
+    <t>麥佑晨</t>
+  </si>
+  <si>
+    <t>S10350123</t>
+  </si>
+  <si>
+    <t>蕭均澔</t>
+  </si>
+  <si>
+    <t>S10350132</t>
+  </si>
+  <si>
+    <t>郭勇慶</t>
+  </si>
+  <si>
+    <t>S10350137</t>
+  </si>
+  <si>
+    <t>林俞函</t>
+  </si>
+  <si>
+    <t>S10350139</t>
+  </si>
+  <si>
+    <t>鄭子麒</t>
+  </si>
+  <si>
+    <t>S10350140</t>
+  </si>
+  <si>
+    <t>陳宥儒</t>
+  </si>
+  <si>
+    <t>S10350141</t>
+  </si>
+  <si>
+    <t>黃品源</t>
+  </si>
+  <si>
+    <t>S10350142</t>
+  </si>
+  <si>
+    <t>郭家鳴</t>
+  </si>
+  <si>
+    <t>S10350144</t>
+  </si>
+  <si>
+    <t>許廷維</t>
+  </si>
+  <si>
+    <t>S10350145</t>
+  </si>
+  <si>
+    <t>郭子豪</t>
+  </si>
+  <si>
+    <t>S10350148</t>
+  </si>
+  <si>
+    <t>胡芷菱</t>
+  </si>
+  <si>
+    <t>S10350149</t>
+  </si>
+  <si>
+    <t>彭逸媛</t>
+  </si>
+  <si>
+    <t>S10350150</t>
+  </si>
+  <si>
+    <t>賴煥昇</t>
+  </si>
+  <si>
+    <t>S10350151</t>
+  </si>
+  <si>
+    <t>葉映攸</t>
+  </si>
+  <si>
+    <t>S09350215</t>
+  </si>
+  <si>
+    <t>黃大昕</t>
+  </si>
+  <si>
+    <t>S09350216</t>
+  </si>
+  <si>
+    <t>吳翰威</t>
+  </si>
+  <si>
+    <t>S09350235</t>
+  </si>
+  <si>
+    <t>楊承浩</t>
+  </si>
+  <si>
+    <t>S09350257</t>
+  </si>
+  <si>
+    <t>王怡婷</t>
+  </si>
+  <si>
+    <t>S10240015</t>
+  </si>
+  <si>
+    <t>張睿恩</t>
+  </si>
+  <si>
+    <t>S10350201</t>
+  </si>
+  <si>
+    <t>江衍億</t>
+  </si>
+  <si>
+    <t>S10350202</t>
+  </si>
+  <si>
+    <t>吳昀臻</t>
+  </si>
+  <si>
+    <t>S10350203</t>
+  </si>
+  <si>
+    <t>潘宛宜</t>
+  </si>
+  <si>
+    <t>S10350210</t>
+  </si>
+  <si>
+    <t>孫竹妘</t>
+  </si>
+  <si>
+    <t>S10350213</t>
+  </si>
+  <si>
+    <t>黃毓軒</t>
+  </si>
+  <si>
+    <t>S10350215</t>
+  </si>
+  <si>
+    <t>黃琮翔</t>
+  </si>
+  <si>
+    <t>S10350218</t>
+  </si>
+  <si>
+    <t>張可翰</t>
+  </si>
+  <si>
+    <t>S10350224</t>
+  </si>
+  <si>
+    <t>陳彥君</t>
+  </si>
+  <si>
+    <t>S10350225</t>
+  </si>
+  <si>
+    <t>陳建汶</t>
+  </si>
+  <si>
+    <t>S10350230</t>
+  </si>
+  <si>
+    <t>許子崴</t>
+  </si>
+  <si>
+    <t>S10350234</t>
+  </si>
+  <si>
+    <t>曾英掄</t>
+  </si>
+  <si>
+    <t>S10350237</t>
+  </si>
+  <si>
+    <t>陳秀君</t>
+  </si>
+  <si>
+    <t>S10350238</t>
+  </si>
+  <si>
+    <t>謝沛妏</t>
+  </si>
+  <si>
+    <t>S10350239</t>
+  </si>
+  <si>
+    <t>S10350241</t>
+  </si>
+  <si>
+    <t>吳柏霖</t>
+  </si>
+  <si>
+    <t>S10350249</t>
+  </si>
+  <si>
+    <t>鄒詠智</t>
+  </si>
+  <si>
+    <t>S10350251</t>
+  </si>
+  <si>
+    <t>魯　易</t>
+  </si>
+  <si>
+    <t>S09210057</t>
+  </si>
+  <si>
+    <t>李　謙</t>
+  </si>
+  <si>
+    <t>S09350336</t>
+  </si>
+  <si>
+    <t>李品萱</t>
+  </si>
+  <si>
+    <t>S09350352</t>
+  </si>
+  <si>
+    <t>林靖蓉</t>
+  </si>
+  <si>
+    <t>S09350353</t>
+  </si>
+  <si>
+    <t>鄧韋茹</t>
+  </si>
+  <si>
+    <t>S09350807</t>
+  </si>
+  <si>
+    <t>康書強</t>
+  </si>
+  <si>
+    <t>S10350301</t>
+  </si>
+  <si>
+    <t>曾慶翔</t>
+  </si>
+  <si>
+    <t>S10350304</t>
+  </si>
+  <si>
+    <t>林宥妤</t>
+  </si>
+  <si>
+    <t>S10350305</t>
+  </si>
+  <si>
+    <t>邱柏揚</t>
+  </si>
+  <si>
+    <t>S10350306</t>
+  </si>
+  <si>
+    <t>陳冠宇</t>
+  </si>
+  <si>
+    <t>S10350308</t>
+  </si>
+  <si>
+    <t>尤奕翔</t>
+  </si>
+  <si>
+    <t>S10350309</t>
+  </si>
+  <si>
+    <t>何　翊</t>
+  </si>
+  <si>
+    <t>S10350310</t>
+  </si>
+  <si>
+    <t>朱祐陞</t>
+  </si>
+  <si>
+    <t>S10350311</t>
+  </si>
+  <si>
+    <t>張筠妮</t>
+  </si>
+  <si>
+    <t>S10350314</t>
+  </si>
+  <si>
+    <t>李　娜</t>
   </si>
   <si>
     <t>S10350320</t>
   </si>
   <si>
-    <t>缺考</t>
-  </si>
-  <si>
-    <t>2025-01-06</t>
-  </si>
-  <si>
-    <t>自辦</t>
+    <t>李仲恩</t>
+  </si>
+  <si>
+    <t>S10350322</t>
+  </si>
+  <si>
+    <t>陳宥呈</t>
+  </si>
+  <si>
+    <t>S10350323</t>
+  </si>
+  <si>
+    <t>劉瑋婷</t>
+  </si>
+  <si>
+    <t>S10350336</t>
+  </si>
+  <si>
+    <t>王伯庭</t>
+  </si>
+  <si>
+    <t>S10350340</t>
+  </si>
+  <si>
+    <t>詹國廷</t>
+  </si>
+  <si>
+    <t>S10350341</t>
+  </si>
+  <si>
+    <t>張庭耀</t>
+  </si>
+  <si>
+    <t>S10350346</t>
+  </si>
+  <si>
+    <t>俞兆庭</t>
+  </si>
+  <si>
+    <t>S10750049</t>
+  </si>
+  <si>
+    <t>林奕緯</t>
+  </si>
+  <si>
+    <t>S06351049</t>
+  </si>
+  <si>
+    <t>潘宣儒</t>
+  </si>
+  <si>
+    <t>S08351044</t>
+  </si>
+  <si>
+    <t>鄭至佑</t>
+  </si>
+  <si>
+    <t>S08353016</t>
+  </si>
+  <si>
+    <t>杜姿霖</t>
+  </si>
+  <si>
+    <t>S08521248</t>
+  </si>
+  <si>
+    <t>王永昇</t>
+  </si>
+  <si>
+    <t>S10522033</t>
+  </si>
+  <si>
+    <t>謝雯婷</t>
+  </si>
+  <si>
+    <t>G09358002</t>
+  </si>
+  <si>
+    <t>黃偉杰</t>
   </si>
 </sst>
 </file>
@@ -372,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,11 +1017,1765 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>174</v>
+      </c>
+      <c r="B86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" t="s">
+        <v>185</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>186</v>
+      </c>
+      <c r="B92" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>192</v>
+      </c>
+      <c r="B95" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>194</v>
+      </c>
+      <c r="B96" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>202</v>
+      </c>
+      <c r="B100" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>204</v>
+      </c>
+      <c r="B101" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>206</v>
+      </c>
+      <c r="B102" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>208</v>
+      </c>
+      <c r="B103" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>210</v>
+      </c>
+      <c r="B104" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>212</v>
+      </c>
+      <c r="B105" t="s">
+        <v>213</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/result_file.xlsx
+++ b/uploads/result_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="231">
   <si>
     <t>學號</t>
   </si>
@@ -31,631 +31,682 @@
     <t>是否通過</t>
   </si>
   <si>
-    <t>S08110137</t>
-  </si>
-  <si>
-    <t>余冠廷</t>
+    <t>S05351013</t>
+  </si>
+  <si>
+    <t>李芝霖</t>
   </si>
   <si>
     <t>不通過</t>
   </si>
   <si>
-    <t>S09130041</t>
-  </si>
-  <si>
-    <t>張言翎</t>
-  </si>
-  <si>
-    <t>S12350110</t>
-  </si>
-  <si>
-    <t>王慕恩</t>
-  </si>
-  <si>
-    <t>S12350113</t>
-  </si>
-  <si>
-    <t>翁子媛</t>
-  </si>
-  <si>
-    <t>S12350117</t>
-  </si>
-  <si>
-    <t>黃柏璋</t>
-  </si>
-  <si>
-    <t>S12350118</t>
-  </si>
-  <si>
-    <t>鍾庭立</t>
-  </si>
-  <si>
-    <t>S12350147</t>
-  </si>
-  <si>
-    <t>張妘溱</t>
-  </si>
-  <si>
-    <t>S12350202</t>
-  </si>
-  <si>
-    <t>王鈺嘉</t>
-  </si>
-  <si>
-    <t>S12350213</t>
-  </si>
-  <si>
-    <t>曾柏勛</t>
-  </si>
-  <si>
-    <t>S12350227</t>
-  </si>
-  <si>
-    <t>闕嘉薰</t>
+    <t>S05351014</t>
+  </si>
+  <si>
+    <t>王宣捷</t>
   </si>
   <si>
     <t>通過</t>
   </si>
   <si>
-    <t>S12350229</t>
-  </si>
-  <si>
-    <t>蔡瑋峵</t>
-  </si>
-  <si>
-    <t>S12350238</t>
-  </si>
-  <si>
-    <t>賴宣睿</t>
-  </si>
-  <si>
-    <t>S11350104</t>
-  </si>
-  <si>
-    <t>楊翔宇</t>
-  </si>
-  <si>
-    <t>S11350113</t>
-  </si>
-  <si>
-    <t>鐘子豪</t>
-  </si>
-  <si>
-    <t>S11350118</t>
-  </si>
-  <si>
-    <t>尤辰愷</t>
-  </si>
-  <si>
-    <t>S11350119</t>
-  </si>
-  <si>
-    <t>劉翔懷</t>
-  </si>
-  <si>
-    <t>S11350126</t>
-  </si>
-  <si>
-    <t>賴正叡</t>
-  </si>
-  <si>
-    <t>S11350127</t>
-  </si>
-  <si>
-    <t>田宇新</t>
-  </si>
-  <si>
-    <t>S11350128</t>
-  </si>
-  <si>
-    <t>葉宇誠</t>
-  </si>
-  <si>
-    <t>S11350137</t>
-  </si>
-  <si>
-    <t>陳羿學</t>
-  </si>
-  <si>
-    <t>S11350139</t>
-  </si>
-  <si>
-    <t>伍韶文</t>
-  </si>
-  <si>
-    <t>S11350148</t>
-  </si>
-  <si>
-    <t>王柏晨</t>
-  </si>
-  <si>
-    <t>S11350203</t>
-  </si>
-  <si>
-    <t>黃俞鈞</t>
-  </si>
-  <si>
-    <t>S11350235</t>
-  </si>
-  <si>
-    <t>游景丞</t>
-  </si>
-  <si>
-    <t>S11350239</t>
-  </si>
-  <si>
-    <t>謝昀翰</t>
-  </si>
-  <si>
-    <t>S11350241</t>
-  </si>
-  <si>
-    <t>劉百程</t>
-  </si>
-  <si>
-    <t>S11350301</t>
-  </si>
-  <si>
-    <t>吳亞倫</t>
-  </si>
-  <si>
-    <t>S11350307</t>
-  </si>
-  <si>
-    <t>陳典譽</t>
-  </si>
-  <si>
-    <t>S11350313</t>
-  </si>
-  <si>
-    <t>謝承燁</t>
-  </si>
-  <si>
-    <t>S11350327</t>
-  </si>
-  <si>
-    <t>桐硯祈</t>
-  </si>
-  <si>
-    <t>S11350351</t>
-  </si>
-  <si>
-    <t>汪昱翔</t>
-  </si>
-  <si>
-    <t>S09350105</t>
-  </si>
-  <si>
-    <t>王東亮</t>
-  </si>
-  <si>
-    <t>S09350107</t>
-  </si>
-  <si>
-    <t>曾馨儀</t>
-  </si>
-  <si>
-    <t>S09350137</t>
-  </si>
-  <si>
-    <t>陳首忠</t>
-  </si>
-  <si>
-    <t>S09350138</t>
-  </si>
-  <si>
-    <t>魏志翰</t>
-  </si>
-  <si>
-    <t>S09350152</t>
-  </si>
-  <si>
-    <t>錢昱期</t>
-  </si>
-  <si>
-    <t>S10350102</t>
-  </si>
-  <si>
-    <t>林妍妤</t>
-  </si>
-  <si>
-    <t>S10350110</t>
-  </si>
-  <si>
-    <t>李家蓁</t>
-  </si>
-  <si>
-    <t>S10350111</t>
-  </si>
-  <si>
-    <t>林彥熏</t>
-  </si>
-  <si>
-    <t>S10350112</t>
-  </si>
-  <si>
-    <t>文　珩</t>
-  </si>
-  <si>
-    <t>S10350122</t>
-  </si>
-  <si>
-    <t>麥佑晨</t>
-  </si>
-  <si>
-    <t>S10350123</t>
-  </si>
-  <si>
-    <t>蕭均澔</t>
-  </si>
-  <si>
-    <t>S10350132</t>
-  </si>
-  <si>
-    <t>郭勇慶</t>
-  </si>
-  <si>
-    <t>S10350137</t>
-  </si>
-  <si>
-    <t>林俞函</t>
-  </si>
-  <si>
-    <t>S10350139</t>
-  </si>
-  <si>
-    <t>鄭子麒</t>
-  </si>
-  <si>
-    <t>S10350140</t>
-  </si>
-  <si>
-    <t>陳宥儒</t>
-  </si>
-  <si>
-    <t>S10350141</t>
-  </si>
-  <si>
-    <t>黃品源</t>
-  </si>
-  <si>
-    <t>S10350142</t>
-  </si>
-  <si>
-    <t>郭家鳴</t>
-  </si>
-  <si>
-    <t>S10350144</t>
-  </si>
-  <si>
-    <t>許廷維</t>
-  </si>
-  <si>
-    <t>S10350145</t>
-  </si>
-  <si>
-    <t>郭子豪</t>
-  </si>
-  <si>
-    <t>S10350148</t>
-  </si>
-  <si>
-    <t>胡芷菱</t>
-  </si>
-  <si>
-    <t>S10350149</t>
-  </si>
-  <si>
-    <t>彭逸媛</t>
-  </si>
-  <si>
-    <t>S10350150</t>
-  </si>
-  <si>
-    <t>賴煥昇</t>
-  </si>
-  <si>
-    <t>S10350151</t>
-  </si>
-  <si>
-    <t>葉映攸</t>
-  </si>
-  <si>
-    <t>S09350215</t>
-  </si>
-  <si>
-    <t>黃大昕</t>
-  </si>
-  <si>
-    <t>S09350216</t>
-  </si>
-  <si>
-    <t>吳翰威</t>
-  </si>
-  <si>
-    <t>S09350235</t>
-  </si>
-  <si>
-    <t>楊承浩</t>
-  </si>
-  <si>
-    <t>S09350257</t>
-  </si>
-  <si>
-    <t>王怡婷</t>
-  </si>
-  <si>
-    <t>S10240015</t>
-  </si>
-  <si>
-    <t>張睿恩</t>
-  </si>
-  <si>
-    <t>S10350201</t>
-  </si>
-  <si>
-    <t>江衍億</t>
-  </si>
-  <si>
-    <t>S10350202</t>
-  </si>
-  <si>
-    <t>吳昀臻</t>
-  </si>
-  <si>
-    <t>S10350203</t>
-  </si>
-  <si>
-    <t>潘宛宜</t>
-  </si>
-  <si>
-    <t>S10350210</t>
-  </si>
-  <si>
-    <t>孫竹妘</t>
-  </si>
-  <si>
-    <t>S10350213</t>
-  </si>
-  <si>
-    <t>黃毓軒</t>
-  </si>
-  <si>
-    <t>S10350215</t>
-  </si>
-  <si>
-    <t>黃琮翔</t>
-  </si>
-  <si>
-    <t>S10350218</t>
-  </si>
-  <si>
-    <t>張可翰</t>
-  </si>
-  <si>
-    <t>S10350224</t>
-  </si>
-  <si>
-    <t>陳彥君</t>
-  </si>
-  <si>
-    <t>S10350225</t>
-  </si>
-  <si>
-    <t>陳建汶</t>
-  </si>
-  <si>
-    <t>S10350230</t>
-  </si>
-  <si>
-    <t>許子崴</t>
-  </si>
-  <si>
-    <t>S10350234</t>
-  </si>
-  <si>
-    <t>曾英掄</t>
-  </si>
-  <si>
-    <t>S10350237</t>
-  </si>
-  <si>
-    <t>陳秀君</t>
-  </si>
-  <si>
-    <t>S10350238</t>
-  </si>
-  <si>
-    <t>謝沛妏</t>
-  </si>
-  <si>
-    <t>S10350239</t>
-  </si>
-  <si>
-    <t>S10350241</t>
-  </si>
-  <si>
-    <t>吳柏霖</t>
-  </si>
-  <si>
-    <t>S10350249</t>
-  </si>
-  <si>
-    <t>鄒詠智</t>
-  </si>
-  <si>
-    <t>S10350251</t>
-  </si>
-  <si>
-    <t>魯　易</t>
-  </si>
-  <si>
-    <t>S09210057</t>
-  </si>
-  <si>
-    <t>李　謙</t>
-  </si>
-  <si>
-    <t>S09350336</t>
-  </si>
-  <si>
-    <t>李品萱</t>
-  </si>
-  <si>
-    <t>S09350352</t>
-  </si>
-  <si>
-    <t>林靖蓉</t>
-  </si>
-  <si>
-    <t>S09350353</t>
-  </si>
-  <si>
-    <t>鄧韋茹</t>
-  </si>
-  <si>
-    <t>S09350807</t>
-  </si>
-  <si>
-    <t>康書強</t>
-  </si>
-  <si>
-    <t>S10350301</t>
-  </si>
-  <si>
-    <t>曾慶翔</t>
-  </si>
-  <si>
-    <t>S10350304</t>
-  </si>
-  <si>
-    <t>林宥妤</t>
-  </si>
-  <si>
-    <t>S10350305</t>
-  </si>
-  <si>
-    <t>邱柏揚</t>
-  </si>
-  <si>
-    <t>S10350306</t>
+    <t>S05351015</t>
+  </si>
+  <si>
+    <t>鄧順鴻</t>
+  </si>
+  <si>
+    <t>S05351017</t>
+  </si>
+  <si>
+    <t>陳彥翔</t>
+  </si>
+  <si>
+    <t>S05351018</t>
+  </si>
+  <si>
+    <t>張瑋瑄</t>
+  </si>
+  <si>
+    <t>S05351020</t>
+  </si>
+  <si>
+    <t>池元祥</t>
+  </si>
+  <si>
+    <t>S05351021</t>
+  </si>
+  <si>
+    <t>古乙程</t>
+  </si>
+  <si>
+    <t>S05351022</t>
+  </si>
+  <si>
+    <t>黃柏熏</t>
+  </si>
+  <si>
+    <t>S05351024</t>
+  </si>
+  <si>
+    <t>顧為程</t>
+  </si>
+  <si>
+    <t>S05351025</t>
+  </si>
+  <si>
+    <t>蔡錫寬</t>
+  </si>
+  <si>
+    <t>S05351026</t>
+  </si>
+  <si>
+    <t>李坤倫</t>
+  </si>
+  <si>
+    <t>S05351027</t>
+  </si>
+  <si>
+    <t>邱柏文</t>
+  </si>
+  <si>
+    <t>S05351029</t>
+  </si>
+  <si>
+    <t>陳威丞</t>
+  </si>
+  <si>
+    <t>S05351032</t>
+  </si>
+  <si>
+    <t>黃　韋</t>
+  </si>
+  <si>
+    <t>S05351033</t>
+  </si>
+  <si>
+    <t>鄭嘉元</t>
+  </si>
+  <si>
+    <t>S05351034</t>
+  </si>
+  <si>
+    <t>吳竺嶧</t>
+  </si>
+  <si>
+    <t>S05351035</t>
+  </si>
+  <si>
+    <t>郭廷宇</t>
+  </si>
+  <si>
+    <t>S05351036</t>
+  </si>
+  <si>
+    <t>顏宏翰</t>
+  </si>
+  <si>
+    <t>S05351037</t>
+  </si>
+  <si>
+    <t>林靖為</t>
+  </si>
+  <si>
+    <t>S05351038</t>
+  </si>
+  <si>
+    <t>林子烜</t>
+  </si>
+  <si>
+    <t>S05351039</t>
+  </si>
+  <si>
+    <t>歐宇傑</t>
+  </si>
+  <si>
+    <t>S05351040</t>
+  </si>
+  <si>
+    <t>陳俞瑄</t>
+  </si>
+  <si>
+    <t>S05351041</t>
+  </si>
+  <si>
+    <t>林源培</t>
+  </si>
+  <si>
+    <t>S05351042</t>
+  </si>
+  <si>
+    <t>陳志賢</t>
+  </si>
+  <si>
+    <t>S05351044</t>
+  </si>
+  <si>
+    <t>謝狄烽</t>
+  </si>
+  <si>
+    <t>S05351045</t>
+  </si>
+  <si>
+    <t>黃博鈞</t>
+  </si>
+  <si>
+    <t>S05351049</t>
+  </si>
+  <si>
+    <t>張　帆</t>
+  </si>
+  <si>
+    <t>S05351050</t>
+  </si>
+  <si>
+    <t>張家瑋</t>
+  </si>
+  <si>
+    <t>S05351052</t>
+  </si>
+  <si>
+    <t>陳玫均</t>
+  </si>
+  <si>
+    <t>S05351053</t>
+  </si>
+  <si>
+    <t>楊佳豪</t>
+  </si>
+  <si>
+    <t>S05351055</t>
+  </si>
+  <si>
+    <t>黃佳媛</t>
+  </si>
+  <si>
+    <t>S05351056</t>
+  </si>
+  <si>
+    <t>吳英豪</t>
+  </si>
+  <si>
+    <t>S05351057</t>
+  </si>
+  <si>
+    <t>陳荐丞</t>
+  </si>
+  <si>
+    <t>S05351058</t>
+  </si>
+  <si>
+    <t>林沛廷</t>
+  </si>
+  <si>
+    <t>S05352001</t>
+  </si>
+  <si>
+    <t>張廷夆</t>
+  </si>
+  <si>
+    <t>S05352003</t>
+  </si>
+  <si>
+    <t>歐軒佑</t>
+  </si>
+  <si>
+    <t>S05352004</t>
+  </si>
+  <si>
+    <t>梁維鈞</t>
+  </si>
+  <si>
+    <t>S05352005</t>
+  </si>
+  <si>
+    <t>李慕全</t>
+  </si>
+  <si>
+    <t>S05352007</t>
+  </si>
+  <si>
+    <t>陳鈺燻</t>
+  </si>
+  <si>
+    <t>S05352008</t>
+  </si>
+  <si>
+    <t>蕭宇馨</t>
+  </si>
+  <si>
+    <t>S05352012</t>
+  </si>
+  <si>
+    <t>江喬軒</t>
+  </si>
+  <si>
+    <t>S05352014</t>
+  </si>
+  <si>
+    <t>鄧雅心</t>
+  </si>
+  <si>
+    <t>S05352016</t>
+  </si>
+  <si>
+    <t>張涵婷</t>
+  </si>
+  <si>
+    <t>S05352017</t>
+  </si>
+  <si>
+    <t>彭文藝</t>
+  </si>
+  <si>
+    <t>S05352018</t>
+  </si>
+  <si>
+    <t>葉乃瑄</t>
+  </si>
+  <si>
+    <t>S05352019</t>
+  </si>
+  <si>
+    <t>叢伯蘭</t>
+  </si>
+  <si>
+    <t>S05352020</t>
+  </si>
+  <si>
+    <t>馬順哲</t>
+  </si>
+  <si>
+    <t>S05352021</t>
+  </si>
+  <si>
+    <t>施渝文</t>
+  </si>
+  <si>
+    <t>S05352022</t>
+  </si>
+  <si>
+    <t>鍾其宏</t>
+  </si>
+  <si>
+    <t>S05352023</t>
+  </si>
+  <si>
+    <t>劉佩宣</t>
+  </si>
+  <si>
+    <t>S05352025</t>
+  </si>
+  <si>
+    <t>丁品甄</t>
+  </si>
+  <si>
+    <t>S05352026</t>
+  </si>
+  <si>
+    <t>石皖宜</t>
+  </si>
+  <si>
+    <t>S05352028</t>
+  </si>
+  <si>
+    <t>唐妙芬</t>
+  </si>
+  <si>
+    <t>S05352030</t>
+  </si>
+  <si>
+    <t>藍勇舜</t>
+  </si>
+  <si>
+    <t>S05352031</t>
+  </si>
+  <si>
+    <t>許筱芸</t>
+  </si>
+  <si>
+    <t>S05352032</t>
+  </si>
+  <si>
+    <t>黃群琳</t>
+  </si>
+  <si>
+    <t>S05352036</t>
+  </si>
+  <si>
+    <t>李天朗</t>
+  </si>
+  <si>
+    <t>S05352037</t>
+  </si>
+  <si>
+    <t>朱涵宇</t>
+  </si>
+  <si>
+    <t>S05352038</t>
+  </si>
+  <si>
+    <t>賴全恩</t>
+  </si>
+  <si>
+    <t>S05352039</t>
+  </si>
+  <si>
+    <t>何煥然</t>
+  </si>
+  <si>
+    <t>S05352040</t>
+  </si>
+  <si>
+    <t>廖婉婷</t>
+  </si>
+  <si>
+    <t>S05352041</t>
+  </si>
+  <si>
+    <t>張顥騫</t>
+  </si>
+  <si>
+    <t>S05352042</t>
+  </si>
+  <si>
+    <t>賴家薇</t>
+  </si>
+  <si>
+    <t>S05352043</t>
+  </si>
+  <si>
+    <t>王晨博</t>
+  </si>
+  <si>
+    <t>S05920027</t>
+  </si>
+  <si>
+    <t>郭庭豪</t>
+  </si>
+  <si>
+    <t>S05240042</t>
+  </si>
+  <si>
+    <t>余沛峰</t>
+  </si>
+  <si>
+    <t>S05353001</t>
+  </si>
+  <si>
+    <t>張翔淨</t>
+  </si>
+  <si>
+    <t>S05353004</t>
+  </si>
+  <si>
+    <t>廖翰國</t>
+  </si>
+  <si>
+    <t>S05353005</t>
+  </si>
+  <si>
+    <t>蔡弘軒</t>
+  </si>
+  <si>
+    <t>S05353006</t>
+  </si>
+  <si>
+    <t>葉汝玉</t>
+  </si>
+  <si>
+    <t>S05353007</t>
+  </si>
+  <si>
+    <t>簡振宇</t>
+  </si>
+  <si>
+    <t>S05353008</t>
+  </si>
+  <si>
+    <t>陳人華</t>
+  </si>
+  <si>
+    <t>S05353009</t>
+  </si>
+  <si>
+    <t>翁鼎傑</t>
+  </si>
+  <si>
+    <t>S05353012</t>
+  </si>
+  <si>
+    <t>王宣中</t>
+  </si>
+  <si>
+    <t>S05353014</t>
+  </si>
+  <si>
+    <t>黃薏安</t>
+  </si>
+  <si>
+    <t>S05353015</t>
+  </si>
+  <si>
+    <t>盧嵂祥</t>
+  </si>
+  <si>
+    <t>S05353016</t>
   </si>
   <si>
     <t>陳冠宇</t>
   </si>
   <si>
-    <t>S10350308</t>
-  </si>
-  <si>
-    <t>尤奕翔</t>
-  </si>
-  <si>
-    <t>S10350309</t>
-  </si>
-  <si>
-    <t>何　翊</t>
-  </si>
-  <si>
-    <t>S10350310</t>
-  </si>
-  <si>
-    <t>朱祐陞</t>
-  </si>
-  <si>
-    <t>S10350311</t>
-  </si>
-  <si>
-    <t>張筠妮</t>
-  </si>
-  <si>
-    <t>S10350314</t>
-  </si>
-  <si>
-    <t>李　娜</t>
-  </si>
-  <si>
-    <t>S10350320</t>
-  </si>
-  <si>
-    <t>李仲恩</t>
-  </si>
-  <si>
-    <t>S10350322</t>
-  </si>
-  <si>
-    <t>陳宥呈</t>
-  </si>
-  <si>
-    <t>S10350323</t>
-  </si>
-  <si>
-    <t>劉瑋婷</t>
-  </si>
-  <si>
-    <t>S10350336</t>
-  </si>
-  <si>
-    <t>王伯庭</t>
-  </si>
-  <si>
-    <t>S10350340</t>
-  </si>
-  <si>
-    <t>詹國廷</t>
-  </si>
-  <si>
-    <t>S10350341</t>
-  </si>
-  <si>
-    <t>張庭耀</t>
-  </si>
-  <si>
-    <t>S10350346</t>
-  </si>
-  <si>
-    <t>俞兆庭</t>
-  </si>
-  <si>
-    <t>S10750049</t>
-  </si>
-  <si>
-    <t>林奕緯</t>
-  </si>
-  <si>
-    <t>S06351049</t>
-  </si>
-  <si>
-    <t>潘宣儒</t>
-  </si>
-  <si>
-    <t>S08351044</t>
-  </si>
-  <si>
-    <t>鄭至佑</t>
-  </si>
-  <si>
-    <t>S08353016</t>
-  </si>
-  <si>
-    <t>杜姿霖</t>
-  </si>
-  <si>
-    <t>S08521248</t>
-  </si>
-  <si>
-    <t>王永昇</t>
-  </si>
-  <si>
-    <t>S10522033</t>
-  </si>
-  <si>
-    <t>謝雯婷</t>
-  </si>
-  <si>
-    <t>G09358002</t>
-  </si>
-  <si>
-    <t>黃偉杰</t>
+    <t>S05353017</t>
+  </si>
+  <si>
+    <t>邱　薇</t>
+  </si>
+  <si>
+    <t>S05353018</t>
+  </si>
+  <si>
+    <t>劉嘉元</t>
+  </si>
+  <si>
+    <t>S05353019</t>
+  </si>
+  <si>
+    <t>林蔚鐘</t>
+  </si>
+  <si>
+    <t>S05353020</t>
+  </si>
+  <si>
+    <t>張家耀</t>
+  </si>
+  <si>
+    <t>S05353021</t>
+  </si>
+  <si>
+    <t>戴誠漢</t>
+  </si>
+  <si>
+    <t>S05353022</t>
+  </si>
+  <si>
+    <t>劉明翰</t>
+  </si>
+  <si>
+    <t>S05353025</t>
+  </si>
+  <si>
+    <t>梁信捷</t>
+  </si>
+  <si>
+    <t>S05353026</t>
+  </si>
+  <si>
+    <t>張晁誌</t>
+  </si>
+  <si>
+    <t>S05353027</t>
+  </si>
+  <si>
+    <t>陳昱廷</t>
+  </si>
+  <si>
+    <t>S05353028</t>
+  </si>
+  <si>
+    <t>顏啟安</t>
+  </si>
+  <si>
+    <t>S05353029</t>
+  </si>
+  <si>
+    <t>賴柏瑜</t>
+  </si>
+  <si>
+    <t>S05353031</t>
+  </si>
+  <si>
+    <t>謝曜宏</t>
+  </si>
+  <si>
+    <t>S05353032</t>
+  </si>
+  <si>
+    <t>林沴育</t>
+  </si>
+  <si>
+    <t>S05353033</t>
+  </si>
+  <si>
+    <t>楊淙崴</t>
+  </si>
+  <si>
+    <t>S05353035</t>
+  </si>
+  <si>
+    <t>吳珮慈</t>
+  </si>
+  <si>
+    <t>S05353037</t>
+  </si>
+  <si>
+    <t>許資汯</t>
+  </si>
+  <si>
+    <t>S05353038</t>
+  </si>
+  <si>
+    <t>房昱丞</t>
+  </si>
+  <si>
+    <t>S05353039</t>
+  </si>
+  <si>
+    <t>高健瑋</t>
+  </si>
+  <si>
+    <t>S05353040</t>
+  </si>
+  <si>
+    <t>黃彥羲</t>
+  </si>
+  <si>
+    <t>S05353041</t>
+  </si>
+  <si>
+    <t>莊雅卉</t>
+  </si>
+  <si>
+    <t>S05353042</t>
+  </si>
+  <si>
+    <t>李彥錡</t>
+  </si>
+  <si>
+    <t>S05353043</t>
+  </si>
+  <si>
+    <t>江晉廷</t>
+  </si>
+  <si>
+    <t>S05353045</t>
+  </si>
+  <si>
+    <t>陳彥儒</t>
+  </si>
+  <si>
+    <t>S05353046</t>
+  </si>
+  <si>
+    <t>羅巧穎</t>
+  </si>
+  <si>
+    <t>S05353048</t>
+  </si>
+  <si>
+    <t>陳家俊</t>
+  </si>
+  <si>
+    <t>S05353050</t>
+  </si>
+  <si>
+    <t>習　梅</t>
+  </si>
+  <si>
+    <t>S05353051</t>
+  </si>
+  <si>
+    <t>邱金妮</t>
+  </si>
+  <si>
+    <t>S05353055</t>
+  </si>
+  <si>
+    <t>許一奇</t>
+  </si>
+  <si>
+    <t>S05353057</t>
+  </si>
+  <si>
+    <t>王信傑</t>
+  </si>
+  <si>
+    <t>S05353058</t>
+  </si>
+  <si>
+    <t>蕭宇順</t>
+  </si>
+  <si>
+    <t>S05353059</t>
+  </si>
+  <si>
+    <t>李允寧</t>
+  </si>
+  <si>
+    <t>S05353060</t>
+  </si>
+  <si>
+    <t>林子敬</t>
+  </si>
+  <si>
+    <t>S05353061</t>
+  </si>
+  <si>
+    <t>孫睿菡</t>
+  </si>
+  <si>
+    <t>S05353063</t>
+  </si>
+  <si>
+    <t>余奕昕</t>
+  </si>
+  <si>
+    <t>S04410377</t>
+  </si>
+  <si>
+    <t>肖妮菲</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,10 +1069,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1035,61 +1086,61 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1097,87 +1148,87 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1188,13 +1239,13 @@
         <v>28</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1205,13 +1256,13 @@
         <v>30</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1222,13 +1273,13 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1239,10 +1290,10 @@
         <v>34</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -1256,10 +1307,10 @@
         <v>36</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -1273,13 +1324,13 @@
         <v>38</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1290,10 +1341,10 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
@@ -1307,13 +1358,13 @@
         <v>42</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1324,13 +1375,13 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1344,10 +1395,10 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1358,13 +1409,13 @@
         <v>48</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1375,10 +1426,10 @@
         <v>50</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>7</v>
@@ -1392,13 +1443,13 @@
         <v>52</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1409,13 +1460,13 @@
         <v>54</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1426,13 +1477,13 @@
         <v>56</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1443,13 +1494,13 @@
         <v>58</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1460,13 +1511,13 @@
         <v>60</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1477,13 +1528,13 @@
         <v>62</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1494,13 +1545,13 @@
         <v>64</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1511,13 +1562,13 @@
         <v>66</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1528,13 +1579,13 @@
         <v>68</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1545,13 +1596,13 @@
         <v>70</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1562,13 +1613,13 @@
         <v>72</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1579,13 +1630,13 @@
         <v>74</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1596,13 +1647,13 @@
         <v>76</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1613,13 +1664,13 @@
         <v>78</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1633,10 +1684,10 @@
         <v>3</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1647,10 +1698,10 @@
         <v>82</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -1664,13 +1715,13 @@
         <v>84</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1681,13 +1732,13 @@
         <v>86</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1698,10 +1749,10 @@
         <v>88</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
         <v>7</v>
@@ -1732,13 +1783,13 @@
         <v>92</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1749,13 +1800,13 @@
         <v>94</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1766,13 +1817,13 @@
         <v>96</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1783,13 +1834,13 @@
         <v>98</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1800,10 +1851,10 @@
         <v>100</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
@@ -1854,10 +1905,10 @@
         <v>3</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1868,10 +1919,10 @@
         <v>108</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
@@ -1888,10 +1939,10 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1902,13 +1953,13 @@
         <v>112</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1919,10 +1970,10 @@
         <v>114</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
         <v>7</v>
@@ -1936,13 +1987,13 @@
         <v>116</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1953,13 +2004,13 @@
         <v>118</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1970,13 +2021,13 @@
         <v>120</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1990,10 +2041,10 @@
         <v>3</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2004,13 +2055,13 @@
         <v>124</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2027,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2038,13 +2089,13 @@
         <v>128</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2055,13 +2106,13 @@
         <v>130</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2072,13 +2123,13 @@
         <v>132</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2095,7 +2146,7 @@
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2123,13 +2174,13 @@
         <v>138</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2146,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2157,13 +2208,13 @@
         <v>142</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2174,13 +2225,13 @@
         <v>144</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2194,10 +2245,10 @@
         <v>2</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2208,13 +2259,13 @@
         <v>148</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2225,13 +2276,13 @@
         <v>150</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2239,13 +2290,13 @@
         <v>151</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="s">
         <v>7</v>
@@ -2253,10 +2304,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2270,27 +2321,27 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B76" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C76">
         <v>3</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2304,135 +2355,135 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
@@ -2440,10 +2491,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2457,13 +2508,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B87" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -2474,50 +2525,50 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B88" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B89" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B90" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="s">
         <v>7</v>
@@ -2525,95 +2576,95 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B91" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B93" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C93">
         <v>3</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B95" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B96" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2627,10 +2678,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B97" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2644,44 +2695,44 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B98" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B99" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B100" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2695,61 +2746,61 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B101" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C101">
         <v>3</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B102" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B103" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2763,19 +2814,155 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B105" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>215</v>
+      </c>
+      <c r="B106" t="s">
+        <v>216</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>217</v>
+      </c>
+      <c r="B107" t="s">
+        <v>218</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>219</v>
+      </c>
+      <c r="B108" t="s">
+        <v>220</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>221</v>
+      </c>
+      <c r="B109" t="s">
+        <v>222</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>223</v>
+      </c>
+      <c r="B110" t="s">
+        <v>224</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>225</v>
+      </c>
+      <c r="B111" t="s">
+        <v>226</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>227</v>
+      </c>
+      <c r="B112" t="s">
+        <v>228</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>229</v>
+      </c>
+      <c r="B113" t="s">
+        <v>230</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/result_file.xlsx
+++ b/uploads/result_file.xlsx
@@ -14,54 +14,972 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="322">
   <si>
     <t>學號</t>
   </si>
   <si>
-    <t>缺考/請假</t>
-  </si>
-  <si>
-    <t>考試日期</t>
-  </si>
-  <si>
-    <t>考試種類</t>
-  </si>
-  <si>
-    <t>備註</t>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>累計題數</t>
+  </si>
+  <si>
+    <t>最高題數</t>
+  </si>
+  <si>
+    <t>是否通過</t>
+  </si>
+  <si>
+    <t>S09350105</t>
+  </si>
+  <si>
+    <t>王東亮</t>
+  </si>
+  <si>
+    <t>通過</t>
+  </si>
+  <si>
+    <t>S09350138</t>
+  </si>
+  <si>
+    <t>魏志翰</t>
+  </si>
+  <si>
+    <t>不通過</t>
+  </si>
+  <si>
+    <t>S09350152</t>
+  </si>
+  <si>
+    <t>錢昱期</t>
+  </si>
+  <si>
+    <t>S09350156</t>
+  </si>
+  <si>
+    <t>謝志龍</t>
+  </si>
+  <si>
+    <t>S10350102</t>
+  </si>
+  <si>
+    <t>林妍妤</t>
+  </si>
+  <si>
+    <t>S10350103</t>
+  </si>
+  <si>
+    <t>葉　鑫</t>
+  </si>
+  <si>
+    <t>S10350104</t>
+  </si>
+  <si>
+    <t>吳威宏</t>
+  </si>
+  <si>
+    <t>S10350106</t>
+  </si>
+  <si>
+    <t>陳柏宇</t>
+  </si>
+  <si>
+    <t>S10350110</t>
+  </si>
+  <si>
+    <t>李家蓁</t>
+  </si>
+  <si>
+    <t>S10350111</t>
+  </si>
+  <si>
+    <t>林彥熏</t>
+  </si>
+  <si>
+    <t>S10350112</t>
+  </si>
+  <si>
+    <t>文　珩</t>
+  </si>
+  <si>
+    <t>S10350113</t>
+  </si>
+  <si>
+    <t>管少棋</t>
+  </si>
+  <si>
+    <t>S10350114</t>
+  </si>
+  <si>
+    <t>胡少騏</t>
+  </si>
+  <si>
+    <t>S10350116</t>
+  </si>
+  <si>
+    <t>劉彥麟</t>
+  </si>
+  <si>
+    <t>S10350117</t>
+  </si>
+  <si>
+    <t>黃柏喻</t>
+  </si>
+  <si>
+    <t>S10350118</t>
+  </si>
+  <si>
+    <t>石景賢</t>
+  </si>
+  <si>
+    <t>S10350119</t>
+  </si>
+  <si>
+    <t>陳甲祐</t>
+  </si>
+  <si>
+    <t>S10350120</t>
+  </si>
+  <si>
+    <t>林業展</t>
+  </si>
+  <si>
+    <t>S10350122</t>
+  </si>
+  <si>
+    <t>麥佑晨</t>
+  </si>
+  <si>
+    <t>S10350123</t>
+  </si>
+  <si>
+    <t>蕭均澔</t>
+  </si>
+  <si>
+    <t>S10350124</t>
+  </si>
+  <si>
+    <t>黃琮祐</t>
+  </si>
+  <si>
+    <t>S10350125</t>
+  </si>
+  <si>
+    <t>梁家瑄</t>
+  </si>
+  <si>
+    <t>S10350126</t>
+  </si>
+  <si>
+    <t>林燦宇</t>
+  </si>
+  <si>
+    <t>S10350127</t>
+  </si>
+  <si>
+    <t>邱俊凱</t>
+  </si>
+  <si>
+    <t>S10350128</t>
+  </si>
+  <si>
+    <t>蔡宗錡</t>
+  </si>
+  <si>
+    <t>S10350130</t>
+  </si>
+  <si>
+    <t>張巧玲</t>
+  </si>
+  <si>
+    <t>S10350131</t>
+  </si>
+  <si>
+    <t>劉尚恩</t>
+  </si>
+  <si>
+    <t>S10350132</t>
+  </si>
+  <si>
+    <t>郭勇慶</t>
+  </si>
+  <si>
+    <t>S10350134</t>
+  </si>
+  <si>
+    <t>賴威智</t>
+  </si>
+  <si>
+    <t>S10350135</t>
+  </si>
+  <si>
+    <t>陳柏融</t>
+  </si>
+  <si>
+    <t>S10350136</t>
+  </si>
+  <si>
+    <t>陳冠惟</t>
+  </si>
+  <si>
+    <t>S10350137</t>
+  </si>
+  <si>
+    <t>林俞函</t>
+  </si>
+  <si>
+    <t>S10350139</t>
+  </si>
+  <si>
+    <t>鄭子麒</t>
+  </si>
+  <si>
+    <t>S10350140</t>
+  </si>
+  <si>
+    <t>陳宥儒</t>
+  </si>
+  <si>
+    <t>S10350141</t>
+  </si>
+  <si>
+    <t>黃品源</t>
+  </si>
+  <si>
+    <t>S10350142</t>
+  </si>
+  <si>
+    <t>郭家鳴</t>
+  </si>
+  <si>
+    <t>S10350143</t>
+  </si>
+  <si>
+    <t>何翊均</t>
+  </si>
+  <si>
+    <t>S10350144</t>
+  </si>
+  <si>
+    <t>許廷維</t>
+  </si>
+  <si>
+    <t>S10350145</t>
+  </si>
+  <si>
+    <t>郭子豪</t>
+  </si>
+  <si>
+    <t>S10350147</t>
+  </si>
+  <si>
+    <t>王昱崴</t>
+  </si>
+  <si>
+    <t>S10350148</t>
+  </si>
+  <si>
+    <t>胡芷菱</t>
+  </si>
+  <si>
+    <t>S10350149</t>
+  </si>
+  <si>
+    <t>彭逸媛</t>
+  </si>
+  <si>
+    <t>S10350150</t>
+  </si>
+  <si>
+    <t>賴煥昇</t>
+  </si>
+  <si>
+    <t>S10350151</t>
+  </si>
+  <si>
+    <t>葉映攸</t>
+  </si>
+  <si>
+    <t>S10350152</t>
+  </si>
+  <si>
+    <t>王宥愉</t>
+  </si>
+  <si>
+    <t>S10350153</t>
+  </si>
+  <si>
+    <t>薛秉昕</t>
+  </si>
+  <si>
+    <t>S10350158</t>
+  </si>
+  <si>
+    <t>雷子毅</t>
+  </si>
+  <si>
+    <t>S10350601</t>
+  </si>
+  <si>
+    <t>洪柏雷</t>
+  </si>
+  <si>
+    <t>S10410332</t>
+  </si>
+  <si>
+    <t>沈飛宏</t>
+  </si>
+  <si>
+    <t>S09350120</t>
+  </si>
+  <si>
+    <t>唐辰豪</t>
+  </si>
+  <si>
+    <t>S09350215</t>
+  </si>
+  <si>
+    <t>黃大昕</t>
+  </si>
+  <si>
+    <t>S09350242</t>
+  </si>
+  <si>
+    <t>邱翊豪</t>
+  </si>
+  <si>
+    <t>S09350244</t>
+  </si>
+  <si>
+    <t>王星皓</t>
+  </si>
+  <si>
+    <t>S10240015</t>
+  </si>
+  <si>
+    <t>張睿恩</t>
+  </si>
+  <si>
+    <t>S10350201</t>
+  </si>
+  <si>
+    <t>江衍億</t>
+  </si>
+  <si>
+    <t>S10350202</t>
+  </si>
+  <si>
+    <t>吳昀臻</t>
+  </si>
+  <si>
+    <t>S10350203</t>
+  </si>
+  <si>
+    <t>潘宛宜</t>
+  </si>
+  <si>
+    <t>S10350205</t>
+  </si>
+  <si>
+    <t>許庭瑋</t>
+  </si>
+  <si>
+    <t>S10350207</t>
+  </si>
+  <si>
+    <t>王焯璠</t>
+  </si>
+  <si>
+    <t>S10350208</t>
+  </si>
+  <si>
+    <t>林靖穎</t>
+  </si>
+  <si>
+    <t>S10350209</t>
+  </si>
+  <si>
+    <t>吳彥廷</t>
+  </si>
+  <si>
+    <t>S10350210</t>
+  </si>
+  <si>
+    <t>孫竹妘</t>
+  </si>
+  <si>
+    <t>S10350211</t>
+  </si>
+  <si>
+    <t>林傑森</t>
+  </si>
+  <si>
+    <t>S10350212</t>
+  </si>
+  <si>
+    <t>郭浚鋐</t>
+  </si>
+  <si>
+    <t>S10350213</t>
+  </si>
+  <si>
+    <t>黃毓軒</t>
+  </si>
+  <si>
+    <t>S10350214</t>
+  </si>
+  <si>
+    <t>周永翔</t>
+  </si>
+  <si>
+    <t>S10350215</t>
+  </si>
+  <si>
+    <t>黃琮翔</t>
+  </si>
+  <si>
+    <t>S10350216</t>
+  </si>
+  <si>
+    <t>俎佑樺</t>
+  </si>
+  <si>
+    <t>S10350217</t>
+  </si>
+  <si>
+    <t>楊冠哲</t>
+  </si>
+  <si>
+    <t>S10350218</t>
+  </si>
+  <si>
+    <t>張可翰</t>
+  </si>
+  <si>
+    <t>S10350220</t>
+  </si>
+  <si>
+    <t>張恬寧</t>
+  </si>
+  <si>
+    <t>S10350221</t>
+  </si>
+  <si>
+    <t>劉柏均</t>
+  </si>
+  <si>
+    <t>S10350223</t>
+  </si>
+  <si>
+    <t>葉尚鑫</t>
+  </si>
+  <si>
+    <t>S10350224</t>
+  </si>
+  <si>
+    <t>陳彥君</t>
+  </si>
+  <si>
+    <t>S10350225</t>
+  </si>
+  <si>
+    <t>陳建汶</t>
+  </si>
+  <si>
+    <t>S10350226</t>
+  </si>
+  <si>
+    <t>黃立維</t>
+  </si>
+  <si>
+    <t>S10350227</t>
+  </si>
+  <si>
+    <t>陳柏邑</t>
+  </si>
+  <si>
+    <t>S10350228</t>
+  </si>
+  <si>
+    <t>陳福第</t>
+  </si>
+  <si>
+    <t>S10350230</t>
+  </si>
+  <si>
+    <t>許子崴</t>
+  </si>
+  <si>
+    <t>S10350231</t>
+  </si>
+  <si>
+    <t>廖宇翔</t>
+  </si>
+  <si>
+    <t>S10350233</t>
+  </si>
+  <si>
+    <t>周芷寧</t>
+  </si>
+  <si>
+    <t>S10350234</t>
+  </si>
+  <si>
+    <t>曾英掄</t>
+  </si>
+  <si>
+    <t>S10350235</t>
+  </si>
+  <si>
+    <t>曾志榮</t>
+  </si>
+  <si>
+    <t>S10350236</t>
+  </si>
+  <si>
+    <t>黃資凱</t>
+  </si>
+  <si>
+    <t>S10350237</t>
+  </si>
+  <si>
+    <t>陳秀君</t>
+  </si>
+  <si>
+    <t>S10350238</t>
+  </si>
+  <si>
+    <t>謝沛妏</t>
+  </si>
+  <si>
+    <t>S10350239</t>
+  </si>
+  <si>
+    <t>S10350240</t>
+  </si>
+  <si>
+    <t>張家寶</t>
+  </si>
+  <si>
+    <t>S10350241</t>
+  </si>
+  <si>
+    <t>吳柏霖</t>
+  </si>
+  <si>
+    <t>S10350243</t>
+  </si>
+  <si>
+    <t>張浴瑲</t>
+  </si>
+  <si>
+    <t>S10350245</t>
+  </si>
+  <si>
+    <t>黃翔柏</t>
+  </si>
+  <si>
+    <t>S10350246</t>
+  </si>
+  <si>
+    <t>袁伯穎</t>
+  </si>
+  <si>
+    <t>S10350247</t>
+  </si>
+  <si>
+    <t>唐政遠</t>
+  </si>
+  <si>
+    <t>S10350249</t>
+  </si>
+  <si>
+    <t>鄒詠智</t>
+  </si>
+  <si>
+    <t>S10350250</t>
+  </si>
+  <si>
+    <t>黎宇宸</t>
+  </si>
+  <si>
+    <t>S10350251</t>
+  </si>
+  <si>
+    <t>魯　易</t>
+  </si>
+  <si>
+    <t>S10350703</t>
+  </si>
+  <si>
+    <t>梁智輝</t>
+  </si>
+  <si>
+    <t>S10350705</t>
+  </si>
+  <si>
+    <t>李天佑</t>
+  </si>
+  <si>
+    <t>S10350710</t>
+  </si>
+  <si>
+    <t>李鴻賺</t>
+  </si>
+  <si>
+    <t>S09330121</t>
+  </si>
+  <si>
+    <t>蕭淳恩</t>
+  </si>
+  <si>
+    <t>S09350324</t>
+  </si>
+  <si>
+    <t>吳旻嬛</t>
+  </si>
+  <si>
+    <t>S09350352</t>
+  </si>
+  <si>
+    <t>林靖蓉</t>
+  </si>
+  <si>
+    <t>S09350353</t>
+  </si>
+  <si>
+    <t>鄧韋茹</t>
+  </si>
+  <si>
+    <t>S10350157</t>
+  </si>
+  <si>
+    <t>洪唯翔</t>
+  </si>
+  <si>
+    <t>S10350301</t>
+  </si>
+  <si>
+    <t>曾慶翔</t>
+  </si>
+  <si>
+    <t>S10350303</t>
+  </si>
+  <si>
+    <t>蘇　昊</t>
+  </si>
+  <si>
+    <t>S10350304</t>
+  </si>
+  <si>
+    <t>林宥妤</t>
+  </si>
+  <si>
+    <t>S10350305</t>
+  </si>
+  <si>
+    <t>邱柏揚</t>
+  </si>
+  <si>
+    <t>S10350306</t>
+  </si>
+  <si>
+    <t>陳冠宇</t>
+  </si>
+  <si>
+    <t>S10350307</t>
+  </si>
+  <si>
+    <t>溫為霖</t>
+  </si>
+  <si>
+    <t>S10350308</t>
+  </si>
+  <si>
+    <t>尤奕翔</t>
+  </si>
+  <si>
+    <t>S10350309</t>
+  </si>
+  <si>
+    <t>何　翊</t>
+  </si>
+  <si>
+    <t>S10350310</t>
+  </si>
+  <si>
+    <t>朱祐陞</t>
+  </si>
+  <si>
+    <t>S10350311</t>
+  </si>
+  <si>
+    <t>張筠妮</t>
+  </si>
+  <si>
+    <t>S10350312</t>
+  </si>
+  <si>
+    <t>吳承軒</t>
+  </si>
+  <si>
+    <t>S10350313</t>
+  </si>
+  <si>
+    <t>林綦祥</t>
+  </si>
+  <si>
+    <t>S10350314</t>
+  </si>
+  <si>
+    <t>李　娜</t>
+  </si>
+  <si>
+    <t>S10350315</t>
+  </si>
+  <si>
+    <t>陳宏達</t>
+  </si>
+  <si>
+    <t>S10350316</t>
+  </si>
+  <si>
+    <t>陳品豪</t>
+  </si>
+  <si>
+    <t>S10350317</t>
+  </si>
+  <si>
+    <t>江佳丞</t>
+  </si>
+  <si>
+    <t>S10350318</t>
+  </si>
+  <si>
+    <t>江祈瑩</t>
   </si>
   <si>
     <t>S10350320</t>
   </si>
   <si>
-    <t>缺考</t>
-  </si>
-  <si>
-    <t>2025-01-06</t>
-  </si>
-  <si>
-    <t>自辦</t>
-  </si>
-  <si>
-    <t>S10350710</t>
-  </si>
-  <si>
-    <t>S09350353</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>官辦</t>
+    <t>李仲恩</t>
+  </si>
+  <si>
+    <t>S10350321</t>
+  </si>
+  <si>
+    <t>陳晏翎</t>
+  </si>
+  <si>
+    <t>S10350322</t>
+  </si>
+  <si>
+    <t>陳宥呈</t>
+  </si>
+  <si>
+    <t>S10350323</t>
+  </si>
+  <si>
+    <t>劉瑋婷</t>
+  </si>
+  <si>
+    <t>S10350324</t>
+  </si>
+  <si>
+    <t>王豪驛</t>
+  </si>
+  <si>
+    <t>S10350325</t>
+  </si>
+  <si>
+    <t>陳建橙</t>
+  </si>
+  <si>
+    <t>S10350326</t>
+  </si>
+  <si>
+    <t>李宗達</t>
+  </si>
+  <si>
+    <t>S10350328</t>
+  </si>
+  <si>
+    <t>蔡鈞富</t>
+  </si>
+  <si>
+    <t>S10350329</t>
+  </si>
+  <si>
+    <t>陸靜怡</t>
+  </si>
+  <si>
+    <t>S10350330</t>
+  </si>
+  <si>
+    <t>蔡喻堯</t>
+  </si>
+  <si>
+    <t>S10350331</t>
+  </si>
+  <si>
+    <t>張宇杰</t>
+  </si>
+  <si>
+    <t>S10350332</t>
+  </si>
+  <si>
+    <t>秦仕儒</t>
+  </si>
+  <si>
+    <t>S10350333</t>
+  </si>
+  <si>
+    <t>張中育</t>
+  </si>
+  <si>
+    <t>S10350334</t>
+  </si>
+  <si>
+    <t>麥慶豊</t>
+  </si>
+  <si>
+    <t>S10350335</t>
+  </si>
+  <si>
+    <t>鄭仁翔</t>
+  </si>
+  <si>
+    <t>S10350336</t>
+  </si>
+  <si>
+    <t>王伯庭</t>
+  </si>
+  <si>
+    <t>S10350337</t>
+  </si>
+  <si>
+    <t>林芸華</t>
+  </si>
+  <si>
+    <t>S10350338</t>
+  </si>
+  <si>
+    <t>李品翰</t>
+  </si>
+  <si>
+    <t>S10350339</t>
+  </si>
+  <si>
+    <t>林聖達</t>
+  </si>
+  <si>
+    <t>S10350340</t>
+  </si>
+  <si>
+    <t>詹國廷</t>
   </si>
   <si>
     <t>S10350341</t>
   </si>
   <si>
-    <t>S09350138</t>
-  </si>
-  <si>
-    <t>2024-05-10</t>
+    <t>張庭耀</t>
+  </si>
+  <si>
+    <t>S10350342</t>
+  </si>
+  <si>
+    <t>紀承堯</t>
+  </si>
+  <si>
+    <t>S10350344</t>
+  </si>
+  <si>
+    <t>謝許鍠</t>
+  </si>
+  <si>
+    <t>S10350345</t>
+  </si>
+  <si>
+    <t>林佳茵</t>
+  </si>
+  <si>
+    <t>S10350346</t>
+  </si>
+  <si>
+    <t>俞兆庭</t>
+  </si>
+  <si>
+    <t>S10350347</t>
+  </si>
+  <si>
+    <t>邱辰家</t>
+  </si>
+  <si>
+    <t>S10350348</t>
+  </si>
+  <si>
+    <t>江興平</t>
+  </si>
+  <si>
+    <t>S10350807</t>
+  </si>
+  <si>
+    <t>黃哲強</t>
+  </si>
+  <si>
+    <t>S10490020</t>
+  </si>
+  <si>
+    <t>莊苡歆</t>
+  </si>
+  <si>
+    <t>S10490022</t>
+  </si>
+  <si>
+    <t>黃若晨</t>
+  </si>
+  <si>
+    <t>S10680022</t>
+  </si>
+  <si>
+    <t>黃柏雋</t>
+  </si>
+  <si>
+    <t>S10750049</t>
+  </si>
+  <si>
+    <t>林奕緯</t>
+  </si>
+  <si>
+    <t>S10920015</t>
+  </si>
+  <si>
+    <t>張家豪</t>
+  </si>
+  <si>
+    <t>S06352011</t>
+  </si>
+  <si>
+    <t>羅崧祐</t>
+  </si>
+  <si>
+    <t>S07352016</t>
+  </si>
+  <si>
+    <t>錡俊安</t>
+  </si>
+  <si>
+    <t>S08352028</t>
+  </si>
+  <si>
+    <t>陳柏璟</t>
+  </si>
+  <si>
+    <t>S08353022</t>
+  </si>
+  <si>
+    <t>周祐維</t>
   </si>
 </sst>
 </file>
@@ -393,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,39 +1341,48 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
         <v>12</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -463,27 +1390,2634 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>173</v>
+      </c>
+      <c r="B85" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>177</v>
+      </c>
+      <c r="B87" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>179</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" t="s">
+        <v>185</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>186</v>
+      </c>
+      <c r="B92" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94">
+        <v>27</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>192</v>
+      </c>
+      <c r="B95" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>194</v>
+      </c>
+      <c r="B96" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>202</v>
+      </c>
+      <c r="B100" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>204</v>
+      </c>
+      <c r="B101" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>206</v>
+      </c>
+      <c r="B102" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>208</v>
+      </c>
+      <c r="B103" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>210</v>
+      </c>
+      <c r="B104" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>212</v>
+      </c>
+      <c r="B105" t="s">
+        <v>213</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" t="s">
+        <v>215</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>216</v>
+      </c>
+      <c r="B107" t="s">
+        <v>217</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>218</v>
+      </c>
+      <c r="B108" t="s">
+        <v>219</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>220</v>
+      </c>
+      <c r="B109" t="s">
+        <v>221</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>222</v>
+      </c>
+      <c r="B110" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>224</v>
+      </c>
+      <c r="B111" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111">
         <v>8</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>226</v>
+      </c>
+      <c r="B112" t="s">
+        <v>227</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>228</v>
+      </c>
+      <c r="B113" t="s">
+        <v>229</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>230</v>
+      </c>
+      <c r="B114" t="s">
+        <v>231</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>232</v>
+      </c>
+      <c r="B115" t="s">
+        <v>233</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>234</v>
+      </c>
+      <c r="B116" t="s">
+        <v>235</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>236</v>
+      </c>
+      <c r="B117" t="s">
+        <v>237</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>238</v>
+      </c>
+      <c r="B118" t="s">
+        <v>239</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>240</v>
+      </c>
+      <c r="B119" t="s">
+        <v>241</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>242</v>
+      </c>
+      <c r="B120" t="s">
+        <v>243</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="E120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>244</v>
+      </c>
+      <c r="B121" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>246</v>
+      </c>
+      <c r="B122" t="s">
+        <v>247</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>248</v>
+      </c>
+      <c r="B123" t="s">
+        <v>249</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>250</v>
+      </c>
+      <c r="B124" t="s">
+        <v>251</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>252</v>
+      </c>
+      <c r="B125" t="s">
+        <v>253</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>254</v>
+      </c>
+      <c r="B126" t="s">
+        <v>255</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>256</v>
+      </c>
+      <c r="B127" t="s">
+        <v>257</v>
+      </c>
+      <c r="C127">
+        <v>8</v>
+      </c>
+      <c r="D127">
+        <v>4</v>
+      </c>
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>258</v>
+      </c>
+      <c r="B128" t="s">
+        <v>259</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>260</v>
+      </c>
+      <c r="B129" t="s">
+        <v>261</v>
+      </c>
+      <c r="C129">
+        <v>13</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
+      </c>
+      <c r="E129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>262</v>
+      </c>
+      <c r="B130" t="s">
+        <v>263</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>264</v>
+      </c>
+      <c r="B131" t="s">
+        <v>265</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>266</v>
+      </c>
+      <c r="B132" t="s">
+        <v>267</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>268</v>
+      </c>
+      <c r="B133" t="s">
+        <v>269</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>270</v>
+      </c>
+      <c r="B134" t="s">
+        <v>271</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>272</v>
+      </c>
+      <c r="B135" t="s">
+        <v>273</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>274</v>
+      </c>
+      <c r="B136" t="s">
+        <v>275</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>276</v>
+      </c>
+      <c r="B137" t="s">
+        <v>277</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>278</v>
+      </c>
+      <c r="B138" t="s">
+        <v>279</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>280</v>
+      </c>
+      <c r="B139" t="s">
+        <v>281</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>282</v>
+      </c>
+      <c r="B140" t="s">
+        <v>283</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>284</v>
+      </c>
+      <c r="B141" t="s">
+        <v>285</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>286</v>
+      </c>
+      <c r="B142" t="s">
+        <v>287</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>288</v>
+      </c>
+      <c r="B143" t="s">
+        <v>289</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>290</v>
+      </c>
+      <c r="B144" t="s">
+        <v>291</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>292</v>
+      </c>
+      <c r="B145" t="s">
+        <v>293</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>294</v>
+      </c>
+      <c r="B146" t="s">
+        <v>295</v>
+      </c>
+      <c r="C146">
+        <v>3</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>296</v>
+      </c>
+      <c r="B147" t="s">
+        <v>297</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>298</v>
+      </c>
+      <c r="B148" t="s">
+        <v>299</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>300</v>
+      </c>
+      <c r="B149" t="s">
+        <v>301</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>302</v>
+      </c>
+      <c r="B150" t="s">
+        <v>303</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>304</v>
+      </c>
+      <c r="B151" t="s">
+        <v>305</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>306</v>
+      </c>
+      <c r="B152" t="s">
+        <v>307</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>308</v>
+      </c>
+      <c r="B153" t="s">
+        <v>309</v>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
+      <c r="E153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>310</v>
+      </c>
+      <c r="B154" t="s">
+        <v>311</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>312</v>
+      </c>
+      <c r="B155" t="s">
+        <v>313</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>314</v>
+      </c>
+      <c r="B156" t="s">
+        <v>315</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>316</v>
+      </c>
+      <c r="B157" t="s">
+        <v>317</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>318</v>
+      </c>
+      <c r="B158" t="s">
+        <v>319</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>320</v>
+      </c>
+      <c r="B159" t="s">
+        <v>321</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
